--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7596.970618725514</v>
+        <v>-17674.1197897831</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116413</v>
+        <v>24061417.37221273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15140382.24954452</v>
+        <v>14486812.97423427</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2946960.506021191</v>
+        <v>3181037.519824727</v>
       </c>
     </row>
     <row r="11">
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>119.5893676834712</v>
+        <v>349.0734308198839</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>102.801558899868</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
         <v>103.6549143897921</v>
@@ -2239,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>57.71152782978022</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>220.1180898275558</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.23907092856646</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>390.6989077708129</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T24" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U24" t="n">
         <v>182.9205141195597</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,19 +2532,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>179.383473729347</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>167.402899104849</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2560,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>205.1678146742703</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>205.1522300959972</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2648,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>93.11323406457223</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H27" t="n">
         <v>52.84233230531351</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>80.51100496435802</v>
+        <v>80.51100496435825</v>
       </c>
       <c r="T27" t="n">
         <v>140.4611363452985</v>
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>42.53343092880611</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.8606092249397</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>154.0476985870096</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>88.97606726121899</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.1623541926605</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>164.540418312084</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>125.0832493553116</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>129.141667737621</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>9.149555444440338</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>164.540418312084</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>132.0484799728555</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>111.5422858787866</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>92.5019652318651</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>121.8763546637761</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>83.22821975386366</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>349.0734308198839</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>142.5988523784892</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3718,10 +3720,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>130.7156792641207</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>173.6367412348449</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>51.4470409088842</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>22.86753086662439</v>
+        <v>84.43156765810356</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>58.85622428633427</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>59.2426779610928</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1433.879624209084</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="C20" t="n">
-        <v>1006.978894222384</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="D20" t="n">
-        <v>583.6862734073845</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="E20" t="n">
-        <v>157.7093335552421</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H20" t="n">
         <v>36.91199246082674</v>
@@ -5750,28 +5752,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K20" t="n">
-        <v>856.3013579804531</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="L20" t="n">
-        <v>856.3013579804531</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M20" t="n">
-        <v>1313.087264683184</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N20" t="n">
-        <v>1313.087264683184</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O20" t="n">
-        <v>1313.087264683184</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5786,16 +5788,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W20" t="n">
-        <v>1845.599623041337</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X20" t="n">
-        <v>1433.879624209084</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="Y20" t="n">
-        <v>1433.879624209084</v>
+        <v>1091.718858467933</v>
       </c>
     </row>
     <row r="21">
@@ -5811,46 +5813,46 @@
         <v>486.529580009787</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E21" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K21" t="n">
-        <v>36.91199246082674</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L21" t="n">
-        <v>493.6978991635576</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M21" t="n">
-        <v>950.4838058662885</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N21" t="n">
-        <v>950.4838058662885</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O21" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P21" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>405.2109393551523</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C22" t="n">
-        <v>405.2109393551523</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D22" t="n">
-        <v>405.2109393551523</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E22" t="n">
-        <v>239.0027335080059</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F22" t="n">
-        <v>239.0027335080059</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G22" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
         <v>36.91199246082674</v>
@@ -5908,25 +5910,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1072.572152198911</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O22" t="n">
-        <v>1428.000280878674</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P22" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5935,25 +5937,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V22" t="n">
-        <v>870.229311894705</v>
+        <v>1563.888155649366</v>
       </c>
       <c r="W22" t="n">
-        <v>595.376908067218</v>
+        <v>1289.035751821879</v>
       </c>
       <c r="X22" t="n">
-        <v>595.376908067218</v>
+        <v>1066.69424694556</v>
       </c>
       <c r="Y22" t="n">
-        <v>595.376908067218</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>888.013114123569</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="C23" t="n">
-        <v>888.013114123569</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="D23" t="n">
-        <v>888.013114123569</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E23" t="n">
-        <v>462.0361742714265</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="F23" t="n">
-        <v>36.91199246082674</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I23" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L23" t="n">
-        <v>358.3859952497895</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M23" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N23" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O23" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P23" t="n">
         <v>1271.957808655251</v>
@@ -6014,25 +6016,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1772.630864527633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1551.705293572267</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U23" t="n">
-        <v>1293.350384168679</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V23" t="n">
-        <v>1293.350384168679</v>
+        <v>1267.18463721222</v>
       </c>
       <c r="W23" t="n">
-        <v>1293.350384168679</v>
+        <v>870.7932875125664</v>
       </c>
       <c r="X23" t="n">
-        <v>1293.350384168679</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="Y23" t="n">
-        <v>888.013114123569</v>
+        <v>476.1479261279069</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E24" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H24" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="I24" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J24" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K24" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L24" t="n">
-        <v>772.8420314050605</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M24" t="n">
-        <v>850.0084995511718</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N24" t="n">
-        <v>850.0084995511718</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O24" t="n">
-        <v>1306.794406253903</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="P24" t="n">
         <v>1763.580312956634</v>
@@ -6096,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6105,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.0231349124776</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="C25" t="n">
-        <v>610.0505717913936</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D25" t="n">
-        <v>446.7337989181643</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E25" t="n">
-        <v>446.7337989181643</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F25" t="n">
-        <v>446.7337989181643</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G25" t="n">
-        <v>280.4768292123964</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H25" t="n">
         <v>136.6805607205508</v>
@@ -6145,52 +6147,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>78.10605253212941</v>
       </c>
       <c r="K25" t="n">
-        <v>76.20565529896515</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L25" t="n">
-        <v>430.8949765933859</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M25" t="n">
-        <v>822.0807715636367</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P25" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T25" t="n">
-        <v>1432.125227786372</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U25" t="n">
-        <v>1250.92979977693</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V25" t="n">
-        <v>1250.92979977693</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W25" t="n">
-        <v>1250.92979977693</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X25" t="n">
-        <v>1008.365903222736</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y25" t="n">
-        <v>782.0231349124776</v>
+        <v>136.6805607205508</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>671.0529392902239</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="C26" t="n">
-        <v>244.152209303524</v>
+        <v>1093.406027972411</v>
       </c>
       <c r="D26" t="n">
-        <v>244.152209303524</v>
+        <v>670.1134071574108</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>244.1364673052684</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>244.1364673052684</v>
       </c>
       <c r="G26" t="n">
         <v>36.91199246082674</v>
@@ -6224,52 +6226,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K26" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L26" t="n">
-        <v>815.1719019525203</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M26" t="n">
-        <v>815.1719019525203</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N26" t="n">
-        <v>815.1719019525203</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O26" t="n">
-        <v>815.1719019525203</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P26" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V26" t="n">
-        <v>1488.110208167586</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W26" t="n">
-        <v>1488.110208167586</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X26" t="n">
-        <v>1076.390209335334</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y26" t="n">
-        <v>671.0529392902239</v>
+        <v>1520.30675795911</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C27" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980092</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
         <v>90.28808569851715</v>
@@ -6300,25 +6302,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J27" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K27" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L27" t="n">
-        <v>772.8420314050605</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M27" t="n">
-        <v>772.8420314050605</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N27" t="n">
-        <v>772.8420314050605</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O27" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P27" t="n">
         <v>1306.794406253903</v>
@@ -6333,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6342,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.1163408781931</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="C28" t="n">
-        <v>682.1437777571091</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D28" t="n">
-        <v>518.8270048838798</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8270048838798</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F28" t="n">
-        <v>346.9652306584402</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7082609526723</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I28" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>78.10605253212941</v>
       </c>
       <c r="K28" t="n">
-        <v>263.4395936666639</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L28" t="n">
-        <v>618.1289149610848</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M28" t="n">
-        <v>822.0807715636367</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N28" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O28" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
@@ -6412,22 +6414,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.125227786372</v>
+        <v>1632.501514016223</v>
       </c>
       <c r="U28" t="n">
-        <v>1432.125227786372</v>
+        <v>1352.317065516527</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.125227786372</v>
+        <v>1070.605598124556</v>
       </c>
       <c r="W28" t="n">
-        <v>1157.272823958885</v>
+        <v>795.7531942970693</v>
       </c>
       <c r="X28" t="n">
-        <v>1157.272823958885</v>
+        <v>553.1892977428744</v>
       </c>
       <c r="Y28" t="n">
-        <v>1044.282309590259</v>
+        <v>326.8465294326164</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>460.2046132758265</v>
+        <v>617.6399102179009</v>
       </c>
       <c r="C29" t="n">
-        <v>460.2046132758265</v>
+        <v>617.6399102179009</v>
       </c>
       <c r="D29" t="n">
-        <v>36.91199246082674</v>
+        <v>617.6399102179009</v>
       </c>
       <c r="E29" t="n">
-        <v>36.91199246082674</v>
+        <v>617.6399102179009</v>
       </c>
       <c r="F29" t="n">
-        <v>36.91199246082674</v>
+        <v>192.5157284073011</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>192.5157284073011</v>
       </c>
       <c r="H29" t="n">
         <v>36.91199246082674</v>
@@ -6464,25 +6466,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L29" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M29" t="n">
-        <v>932.7282368344229</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N29" t="n">
-        <v>932.7282368344229</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O29" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6491,22 +6493,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1276.44432726701</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>880.0529775673565</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X29" t="n">
-        <v>880.0529775673565</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y29" t="n">
-        <v>880.0529775673565</v>
+        <v>1037.488274509431</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273854</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J30" t="n">
-        <v>316.0561247023296</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K30" t="n">
-        <v>316.0561247023296</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="L30" t="n">
-        <v>316.0561247023296</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="M30" t="n">
+        <v>36.9119924608267</v>
+      </c>
+      <c r="N30" t="n">
         <v>393.2225928484409</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>850.0084995511718</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1306.794406253903</v>
       </c>
       <c r="P30" t="n">
         <v>1306.794406253903</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.093114985063</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C31" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D31" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E31" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F31" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G31" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
         <v>36.91199246082674</v>
@@ -6622,49 +6624,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K31" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6013137552475</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M31" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P31" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U31" t="n">
-        <v>1518.376561228814</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.376561228814</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W31" t="n">
-        <v>1518.376561228814</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X31" t="n">
-        <v>1275.81266467462</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.81266467462</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1845.599623041337</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="C32" t="n">
-        <v>1418.698893054637</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="D32" t="n">
-        <v>1292.35217653412</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="E32" t="n">
-        <v>866.3752366819779</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="F32" t="n">
-        <v>441.2510548713781</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I32" t="n">
         <v>36.91199246082674</v>
@@ -6704,19 +6706,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="L32" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M32" t="n">
-        <v>357.6855680512415</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N32" t="n">
-        <v>814.4714747539724</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O32" t="n">
-        <v>1271.257381456703</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6725,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V32" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W32" t="n">
-        <v>1845.599623041337</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="X32" t="n">
-        <v>1845.599623041337</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.599623041337</v>
+        <v>774.0163046538721</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6773,25 @@
         <v>90.28808569851735</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082694</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082694</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J33" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="K33" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L33" t="n">
-        <v>932.027809635875</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M33" t="n">
-        <v>932.027809635875</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="N33" t="n">
-        <v>932.027809635875</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="O33" t="n">
         <v>932.027809635875</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7737666862663</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7737666862663</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7737666862663</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7737666862663</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F34" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G34" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
         <v>36.91199246082674</v>
@@ -6856,25 +6858,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K34" t="n">
-        <v>94.40332068498475</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L34" t="n">
-        <v>449.0926419794055</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M34" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N34" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O34" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P34" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6883,25 +6885,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V34" t="n">
-        <v>1142.698804090272</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W34" t="n">
-        <v>867.8464002627849</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X34" t="n">
-        <v>625.28250370859</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y34" t="n">
-        <v>398.9397353983319</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.2942954637111</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C35" t="n">
-        <v>170.2942954637111</v>
+        <v>998.8505287631069</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082674</v>
+        <v>575.5579079481072</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082674</v>
+        <v>149.5809680959647</v>
       </c>
       <c r="F35" t="n">
         <v>36.91199246082674</v>
@@ -6935,25 +6937,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L35" t="n">
-        <v>950.4838058662885</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M35" t="n">
-        <v>1389.514143537154</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N35" t="n">
-        <v>1389.514143537154</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O35" t="n">
-        <v>1389.514143537154</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P35" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q35" t="n">
         <v>1845.599623041337</v>
@@ -6962,25 +6964,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1383.742914040727</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W35" t="n">
-        <v>987.3515643410735</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X35" t="n">
-        <v>575.6315655088208</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.2942954637111</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K36" t="n">
-        <v>772.8420314050605</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L36" t="n">
-        <v>850.0084995511716</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M36" t="n">
-        <v>850.0084995511716</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N36" t="n">
-        <v>850.0084995511716</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O36" t="n">
-        <v>850.0084995511716</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P36" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7044,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7053,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>375.0927614290572</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="C37" t="n">
-        <v>203.1201983079732</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="D37" t="n">
-        <v>203.1201983079732</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G37" t="n">
         <v>36.91199246082674</v>
@@ -7093,25 +7095,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K37" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L37" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M37" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N37" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O37" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P37" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.464575560472</v>
+        <v>1752.163294524301</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.125227786372</v>
+        <v>1508.823946750201</v>
       </c>
       <c r="U37" t="n">
-        <v>1432.125227786372</v>
+        <v>1228.639498250506</v>
       </c>
       <c r="V37" t="n">
-        <v>1309.017798833063</v>
+        <v>946.9280308585344</v>
       </c>
       <c r="W37" t="n">
-        <v>1034.165395005576</v>
+        <v>672.0756270310475</v>
       </c>
       <c r="X37" t="n">
-        <v>791.6014984513808</v>
+        <v>429.5117304768526</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.2587301411229</v>
+        <v>203.1689621665946</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1433.879624209084</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="C38" t="n">
-        <v>1006.978894222384</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="D38" t="n">
-        <v>922.9099853800977</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="E38" t="n">
-        <v>496.9330455279553</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="F38" t="n">
-        <v>71.80886371735554</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G38" t="n">
-        <v>71.80886371735554</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H38" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I38" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M38" t="n">
-        <v>36.91199246082674</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="N38" t="n">
-        <v>358.3859952497895</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O38" t="n">
-        <v>815.1719019525203</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P38" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
@@ -7208,16 +7210,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V38" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W38" t="n">
-        <v>1845.599623041337</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X38" t="n">
-        <v>1433.879624209084</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="Y38" t="n">
-        <v>1433.879624209084</v>
+        <v>1091.718858467933</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273858</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023297</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K39" t="n">
-        <v>772.8420314050605</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L39" t="n">
-        <v>1229.627938107791</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M39" t="n">
-        <v>1306.794406253902</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N39" t="n">
-        <v>1306.794406253902</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O39" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.2713085277261</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2987454066421</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="D40" t="n">
-        <v>374.9819725334128</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7737666862663</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="F40" t="n">
-        <v>36.91199246082674</v>
+        <v>180.9512372875835</v>
       </c>
       <c r="G40" t="n">
         <v>36.91199246082674</v>
@@ -7333,49 +7335,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K40" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L40" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1363.171364120812</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1718.599492800575</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1798.56100972851</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T40" t="n">
-        <v>1555.22166195441</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.037213454714</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V40" t="n">
-        <v>1143.001173793986</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W40" t="n">
-        <v>1143.001173793986</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X40" t="n">
-        <v>900.4372772397917</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="Y40" t="n">
-        <v>900.4372772397917</v>
+        <v>352.8130115130231</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6439502320927</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="C41" t="n">
-        <v>421.6439502320927</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D41" t="n">
-        <v>421.6439502320927</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E41" t="n">
-        <v>421.6439502320927</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F41" t="n">
-        <v>421.6439502320927</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G41" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H41" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I41" t="n">
         <v>36.91199246082674</v>
@@ -7412,25 +7414,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K41" t="n">
-        <v>475.942330131692</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L41" t="n">
-        <v>932.7282368344229</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M41" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N41" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O41" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P41" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7442,19 +7444,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U41" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V41" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W41" t="n">
-        <v>833.3639490643454</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X41" t="n">
-        <v>421.6439502320927</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y41" t="n">
-        <v>421.6439502320927</v>
+        <v>632.1510044643213</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
-        <v>772.8420314050605</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M42" t="n">
-        <v>1686.413844810522</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N42" t="n">
-        <v>1763.580312956634</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O42" t="n">
-        <v>1763.580312956634</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P42" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q42" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>999.3953625201113</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="C43" t="n">
-        <v>827.4227993990273</v>
+        <v>789.8401268882722</v>
       </c>
       <c r="D43" t="n">
-        <v>664.106026525798</v>
+        <v>626.5233540150429</v>
       </c>
       <c r="E43" t="n">
-        <v>497.8978206786516</v>
+        <v>460.3151481678964</v>
       </c>
       <c r="F43" t="n">
-        <v>326.036046453212</v>
+        <v>288.4533739424568</v>
       </c>
       <c r="G43" t="n">
-        <v>159.7790767474441</v>
+        <v>122.1964042366889</v>
       </c>
       <c r="H43" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M43" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N43" t="n">
-        <v>1072.572152198911</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878674</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P43" t="n">
         <v>1718.599492800575</v>
@@ -7591,28 +7593,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T43" t="n">
-        <v>1432.125227786372</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U43" t="n">
-        <v>1432.125227786372</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V43" t="n">
-        <v>1432.125227786372</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.125227786372</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="X43" t="n">
-        <v>1189.561331232177</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="Y43" t="n">
-        <v>1189.561331232177</v>
+        <v>961.8126900093562</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>519.6553448781843</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>939.5037091697144</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>713.2115053602647</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1372.284138936783</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1372.284138936783</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1372.284138936783</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1129.720242382588</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>903.3774740723304</v>
       </c>
     </row>
   </sheetData>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>497.1645065551435</v>
+        <v>478.5220861203824</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
         <v>498.831168659766</v>
@@ -9413,16 +9415,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P20" t="n">
-        <v>456.7228602710902</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726622</v>
+        <v>375.4846162958657</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>465.9293750477953</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9574,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L23" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
         <v>498.831168659766</v>
@@ -9653,7 +9655,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9711,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>101.0427079326424</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9732,7 +9734,7 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651629</v>
+        <v>107.2386302028318</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>62.24691767208638</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9808,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>458.1670431142372</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600191</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9960,16 +9962,16 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>108.5645695103311</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>99.71676862514317</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q27" t="n">
         <v>484.1469440493127</v>
@@ -10030,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>62.24691767208638</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10039,19 +10041,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>228.5874162576999</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>499.7119481929572</v>
+        <v>457.4595408934818</v>
       </c>
       <c r="M29" t="n">
-        <v>114.6301304286942</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>101.0427079326424</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738759</v>
+        <v>381.2527255747682</v>
       </c>
       <c r="O30" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q30" t="n">
         <v>484.1469440493127</v>
@@ -10270,13 +10272,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>329.1202152123216</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,22 +10354,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M32" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P32" t="n">
-        <v>498.9752675705655</v>
+        <v>362.2965767485775</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10428,19 +10430,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>465.2725720398026</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>465.8542658379011</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P33" t="n">
         <v>483.1707469651629</v>
@@ -10504,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>271.0481665010509</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>497.1645065551435</v>
@@ -10592,7 +10594,7 @@
         <v>499.7119481929572</v>
       </c>
       <c r="M35" t="n">
-        <v>480.8962504457604</v>
+        <v>113.9226282079388</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
@@ -10601,10 +10603,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10668,19 +10670,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>100.4610141345437</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>484.1469440493127</v>
@@ -10741,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10762,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
@@ -10829,10 +10831,10 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>113.9226282079387</v>
       </c>
       <c r="N38" t="n">
-        <v>362.0008377727922</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O38" t="n">
         <v>498.7908651163583</v>
@@ -10841,10 +10843,10 @@
         <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>483.9149924745637</v>
+        <v>465.2725720398027</v>
       </c>
       <c r="M39" t="n">
-        <v>101.0427079326423</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
         <v>483.1707469651629</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,7 +10983,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10990,16 +10992,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>378.1798648033541</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,16 +11062,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>479.2295883411379</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>361.4449756170225</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11078,10 +11080,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>99.28895563385618</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11224,16 +11226,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>100.3044564185466</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>114.6301304286942</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11315,7 +11317,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>191.487466684572</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23969,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>301.2835723090225</v>
+        <v>71.79950917260982</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24026,13 +24028,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>106.88287217893</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>20.02016776109707</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24212,19 +24214,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.08455025702453</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>16.90389107311734</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24376,10 +24378,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>97.99913028535173</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>56.67644152230633</v>
       </c>
     </row>
     <row r="26">
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>216.5493557793507</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>195.1434416904486</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>198.3725233675529</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.2187314022156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>140.8419961536959</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24731,19 +24733,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>264.938453463794</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.10195483228449</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -24892,19 +24894,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>107.5634614771281</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>293.9764452515381</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>263.2857684650355</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>269.744797273611</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>107.5634614771281</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>287.0112146339941</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>309.3306541137071</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25211,16 +25213,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.93173177419139</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>157.0179980542753</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>335.831474852986</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>71.79950917260982</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>21.99554763022098</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>148.1786734539307</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>248.994981451988</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25640,13 +25642,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>348.8486308775616</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>119.4907749403028</v>
+        <v>57.92673814882359</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>363.7754984004986</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -25925,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>218.139926053606</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26086,10 +26088,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>466215.7471289765</v>
+        <v>466215.7471289766</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466215.7471289765</v>
+        <v>466215.7471289766</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466215.7471289766</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>466215.7471289767</v>
+        <v>466215.7471289766</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466215.7471289765</v>
+        <v>466215.7471289766</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019949</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8835.981590351534</v>
+        <v>8835.981590351532</v>
       </c>
       <c r="C2" t="n">
-        <v>8835.981590351534</v>
+        <v>8835.981590351535</v>
       </c>
       <c r="D2" t="n">
         <v>8835.981590351535</v>
@@ -26323,7 +26325,7 @@
         <v>8835.981590351535</v>
       </c>
       <c r="F2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="G2" t="n">
         <v>8835.981590351535</v>
@@ -26335,25 +26337,25 @@
         <v>67657.21636827559</v>
       </c>
       <c r="J2" t="n">
-        <v>67657.21636827556</v>
+        <v>67657.21636827559</v>
       </c>
       <c r="K2" t="n">
-        <v>67657.21636827559</v>
+        <v>67657.21636827558</v>
       </c>
       <c r="L2" t="n">
         <v>67657.21636827558</v>
       </c>
       <c r="M2" t="n">
-        <v>67657.21636827559</v>
+        <v>67657.21636827558</v>
       </c>
       <c r="N2" t="n">
-        <v>67657.21636827556</v>
+        <v>67657.21636827558</v>
       </c>
       <c r="O2" t="n">
         <v>67657.21636827558</v>
       </c>
       <c r="P2" t="n">
-        <v>8835.981590351534</v>
+        <v>67657.21636827559</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>109062.9413241932</v>
       </c>
     </row>
     <row r="4">
@@ -26442,10 +26444,10 @@
         <v>8050.273149146124</v>
       </c>
       <c r="K4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146125</v>
       </c>
       <c r="L4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146125</v>
       </c>
       <c r="M4" t="n">
         <v>8050.273149146124</v>
@@ -26457,7 +26459,7 @@
         <v>8050.273149146124</v>
       </c>
       <c r="P4" t="n">
-        <v>981.7757322612816</v>
+        <v>8050.273149146124</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26531,7 +26533,7 @@
         <v>7854.205858090254</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090254</v>
+        <v>7854.205858090252</v>
       </c>
       <c r="G6" t="n">
         <v>7854.205858090254</v>
@@ -26543,25 +26545,25 @@
         <v>31553.82894890115</v>
       </c>
       <c r="J6" t="n">
-        <v>31553.82894890112</v>
+        <v>31553.82894890115</v>
       </c>
       <c r="K6" t="n">
-        <v>31553.82894890115</v>
+        <v>31553.82894890114</v>
       </c>
       <c r="L6" t="n">
         <v>31553.82894890114</v>
       </c>
       <c r="M6" t="n">
-        <v>31553.82894890115</v>
+        <v>31553.82894890114</v>
       </c>
       <c r="N6" t="n">
-        <v>31553.82894890112</v>
+        <v>31553.82894890114</v>
       </c>
       <c r="O6" t="n">
         <v>31553.82894890114</v>
       </c>
       <c r="P6" t="n">
-        <v>7854.205858090252</v>
+        <v>-77509.11237529208</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>442.7574853255731</v>
+      </c>
+      <c r="L20" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>461.3999057603342</v>
@@ -36133,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P20" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>352.3878357835378</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M21" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>442.7574853255731</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36294,10 +36296,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L23" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>461.3999057603342</v>
@@ -36373,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M24" t="n">
-        <v>77.94592742031439</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P24" t="n">
-        <v>461.3999057603342</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>41.61016168818452</v>
       </c>
       <c r="K25" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36528,13 +36530,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36680,16 +36682,16 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="P27" t="n">
-        <v>77.9459274203145</v>
       </c>
       <c r="Q27" t="n">
         <v>461.3999057603342</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>41.61016168818452</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
@@ -36759,19 +36761,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>206.0119763662141</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L29" t="n">
+        <v>419.1474984608589</v>
+      </c>
+      <c r="M29" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M29" t="n">
-        <v>77.19886752926243</v>
-      </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>77.94592742031445</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603342</v>
+        <v>359.9096973612265</v>
       </c>
       <c r="O30" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q30" t="n">
         <v>461.3999057603342</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L31" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>306.5447753208358</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M32" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P32" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>442.7574853255731</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L33" t="n">
-        <v>442.7574853255731</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>461.3999057603342</v>
@@ -37224,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M34" t="n">
-        <v>248.4727266095651</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
         <v>381.3045564404402</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>461.3999057603342</v>
@@ -37312,7 +37314,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M35" t="n">
-        <v>443.4649875463285</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,10 +37323,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
-        <v>77.94592742031416</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>461.3999057603342</v>
@@ -37461,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37549,10 +37551,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>76.49136530850691</v>
       </c>
       <c r="N38" t="n">
-        <v>324.7212149383462</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O38" t="n">
         <v>461.3999057603342</v>
@@ -37561,10 +37563,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
+        <v>442.7574853255732</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M39" t="n">
-        <v>77.94592742031428</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>461.3999057603342</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37710,16 +37712,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>357.4309638277537</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,17 +37782,17 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M41" t="n">
+        <v>324.0137127175907</v>
+      </c>
+      <c r="N41" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
@@ -37798,10 +37800,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>160.7937153846612</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Q42" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N42" t="n">
-        <v>77.9459274203145</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -37944,16 +37946,16 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>77.72901652706079</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17674.1197897831</v>
+        <v>-26858.34383176903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24061417.37221273</v>
+        <v>23394577.99326133</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14486812.97423427</v>
+        <v>13833243.698924</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3181037.519824727</v>
+        <v>3514202.098587643</v>
       </c>
     </row>
     <row r="11">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>311.5620172782234</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>80.51100496435825</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>65.76953573495733</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>148.5871038826359</v>
       </c>
       <c r="F20" t="n">
-        <v>349.0734308198839</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>143.9454833541595</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>220.1180898275558</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>2.995605349316558</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>390.6989077708129</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.402899104849</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>244.6771405667886</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>205.1522300959972</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H27" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T27" t="n">
         <v>140.4611363452985</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>42.53343092880611</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>154.0476985870096</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>106.8056168372341</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>225.5855032049595</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>129.141667737621</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>127.6377393258621</v>
+        <v>127.6377393258623</v>
       </c>
       <c r="C33" t="n">
         <v>116.3308444476703</v>
@@ -3125,7 +3125,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>82.22009435267198</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>106.805616837234</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>111.5422858787866</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>92.5019652318651</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>82.98779106037803</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>369.2847948544223</v>
       </c>
       <c r="F38" t="n">
-        <v>349.0734308198839</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>142.5988523784892</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>134.8617396240858</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>173.6367412348449</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>237.0423989678792</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.96369301632841</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3912,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>84.43156765810356</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>58.85622428633427</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>244.3495260253634</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.2426779610928</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>256.4911999419665</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1076.390209335334</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1091.718858467933</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="C20" t="n">
-        <v>1091.718858467933</v>
+        <v>1314.331598927777</v>
       </c>
       <c r="D20" t="n">
-        <v>1091.718858467933</v>
+        <v>1314.331598927777</v>
       </c>
       <c r="E20" t="n">
-        <v>1091.718858467933</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F20" t="n">
         <v>739.1194333973433</v>
@@ -5755,49 +5755,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K20" t="n">
-        <v>475.2419029331441</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L20" t="n">
-        <v>932.027809635875</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="M20" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N20" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O20" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P20" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V20" t="n">
-        <v>1488.110208167586</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W20" t="n">
-        <v>1091.718858467933</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X20" t="n">
-        <v>1091.718858467933</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y20" t="n">
-        <v>1091.718858467933</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>44.35863542273854</v>
       </c>
       <c r="J21" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K21" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L21" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M21" t="n">
-        <v>850.0084995511718</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N21" t="n">
-        <v>850.0084995511718</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O21" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P21" t="n">
-        <v>1306.794406253903</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>876.528278233494</v>
+        <v>354.2840337174254</v>
       </c>
       <c r="C22" t="n">
-        <v>704.55571511241</v>
+        <v>182.3114705963414</v>
       </c>
       <c r="D22" t="n">
-        <v>541.2389422391807</v>
+        <v>182.3114705963414</v>
       </c>
       <c r="E22" t="n">
-        <v>375.0307363920342</v>
+        <v>182.3114705963414</v>
       </c>
       <c r="F22" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
         <v>36.91199246082674</v>
@@ -5934,28 +5934,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V22" t="n">
-        <v>1563.888155649366</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W22" t="n">
-        <v>1289.035751821879</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="X22" t="n">
-        <v>1066.69424694556</v>
+        <v>580.6268020276833</v>
       </c>
       <c r="Y22" t="n">
-        <v>1066.69424694556</v>
+        <v>354.2840337174254</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.1479261279069</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="C23" t="n">
-        <v>476.1479261279069</v>
+        <v>1314.331598927777</v>
       </c>
       <c r="D23" t="n">
-        <v>476.1479261279069</v>
+        <v>891.0389781127776</v>
       </c>
       <c r="E23" t="n">
-        <v>476.1479261279069</v>
+        <v>465.0620382606352</v>
       </c>
       <c r="F23" t="n">
-        <v>476.1479261279069</v>
+        <v>39.93785645003538</v>
       </c>
       <c r="G23" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H23" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I23" t="n">
         <v>36.91199246082674</v>
@@ -5992,22 +5992,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M23" t="n">
-        <v>1271.957808655251</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N23" t="n">
-        <v>1271.957808655251</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O23" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P23" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q23" t="n">
         <v>1728.043288159434</v>
@@ -6016,25 +6016,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T23" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U23" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V23" t="n">
-        <v>1267.18463721222</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W23" t="n">
-        <v>870.7932875125664</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X23" t="n">
-        <v>476.1479261279069</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y23" t="n">
-        <v>476.1479261279069</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="24">
@@ -6050,43 +6050,43 @@
         <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J24" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K24" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3953884431487</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.18129514588</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N24" t="n">
-        <v>1222.18129514588</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O24" t="n">
-        <v>1678.967201848611</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P24" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q24" t="n">
         <v>1763.580312956634</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993831</v>
       </c>
       <c r="C25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I25" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>78.10605253212941</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K25" t="n">
-        <v>304.6336537379666</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L25" t="n">
-        <v>659.3229750323874</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M25" t="n">
-        <v>1050.508770002638</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1428.000280878674</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
@@ -6192,7 +6192,7 @@
         <v>305.7743982001963</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1520.30675795911</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="C26" t="n">
-        <v>1093.406027972411</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="D26" t="n">
-        <v>670.1134071574108</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E26" t="n">
-        <v>244.1364673052684</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F26" t="n">
-        <v>244.1364673052684</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H26" t="n">
         <v>36.91199246082674</v>
@@ -6226,52 +6226,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L26" t="n">
-        <v>950.4838058662885</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M26" t="n">
-        <v>1407.269712569019</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N26" t="n">
-        <v>1845.599623041337</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O26" t="n">
-        <v>1845.599623041337</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P26" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U26" t="n">
-        <v>1520.30675795911</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V26" t="n">
-        <v>1520.30675795911</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W26" t="n">
-        <v>1520.30675795911</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="X26" t="n">
-        <v>1520.30675795911</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="Y26" t="n">
-        <v>1520.30675795911</v>
+        <v>1008.829727808632</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H27" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K27" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M27" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N27" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O27" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P27" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993831</v>
       </c>
       <c r="C28" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993831</v>
       </c>
       <c r="D28" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993831</v>
       </c>
       <c r="E28" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993831</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993831</v>
       </c>
       <c r="G28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>78.10605253212941</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>304.6336537379666</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>659.3229750323874</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>1050.508770002638</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N28" t="n">
-        <v>1428.000280878674</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878674</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P28" t="n">
         <v>1718.599492800575</v>
@@ -6408,28 +6408,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T28" t="n">
-        <v>1632.501514016223</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U28" t="n">
-        <v>1352.317065516527</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V28" t="n">
-        <v>1070.605598124556</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W28" t="n">
-        <v>795.7531942970693</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X28" t="n">
-        <v>553.1892977428744</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y28" t="n">
-        <v>326.8465294326164</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>617.6399102179009</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="C29" t="n">
-        <v>617.6399102179009</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D29" t="n">
-        <v>617.6399102179009</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E29" t="n">
-        <v>617.6399102179009</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F29" t="n">
-        <v>192.5157284073011</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G29" t="n">
-        <v>192.5157284073011</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I29" t="n">
         <v>36.91199246082674</v>
@@ -6469,19 +6469,19 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L29" t="n">
-        <v>1271.257381456703</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M29" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N29" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O29" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P29" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
         <v>1728.043288159434</v>
@@ -6490,25 +6490,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W29" t="n">
-        <v>1449.208273341684</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="X29" t="n">
-        <v>1037.488274509431</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="Y29" t="n">
-        <v>1037.488274509431</v>
+        <v>796.5779722300206</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J30" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K30" t="n">
-        <v>36.9119924608267</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>36.9119924608267</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M30" t="n">
-        <v>36.9119924608267</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N30" t="n">
-        <v>393.2225928484409</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O30" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P30" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1020.32454672534</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C31" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D31" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E31" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F31" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G31" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H31" t="n">
         <v>36.91199246082674</v>
@@ -6621,52 +6621,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P31" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T31" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U31" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V31" t="n">
-        <v>1845.599623041337</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W31" t="n">
-        <v>1679.397180301858</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X31" t="n">
-        <v>1436.833283747663</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y31" t="n">
-        <v>1210.490515437405</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>774.0163046538721</v>
+        <v>1114.969487914001</v>
       </c>
       <c r="C32" t="n">
-        <v>774.0163046538721</v>
+        <v>688.0687579273008</v>
       </c>
       <c r="D32" t="n">
-        <v>774.0163046538721</v>
+        <v>264.7761371123011</v>
       </c>
       <c r="E32" t="n">
-        <v>774.0163046538721</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F32" t="n">
-        <v>774.0163046538721</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G32" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H32" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L32" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M32" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N32" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O32" t="n">
-        <v>950.4838058662885</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P32" t="n">
         <v>1271.957808655251</v>
@@ -6733,19 +6733,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1261.951848555523</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V32" t="n">
-        <v>904.4624336817722</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W32" t="n">
-        <v>774.0163046538721</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X32" t="n">
-        <v>774.0163046538721</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y32" t="n">
-        <v>774.0163046538721</v>
+        <v>1114.969487914001</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980092</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H33" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J33" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L33" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M33" t="n">
-        <v>475.2419029331441</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N33" t="n">
-        <v>475.2419029331441</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O33" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P33" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q33" t="n">
         <v>1845.599623041337</v>
@@ -6858,52 +6858,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U34" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.599623041337</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W34" t="n">
-        <v>1679.397180301858</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.833283747663</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.490515437405</v>
+        <v>1103.375147081574</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.751258749807</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="C35" t="n">
-        <v>998.8505287631069</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="D35" t="n">
-        <v>575.5579079481072</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E35" t="n">
-        <v>149.5809680959647</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I35" t="n">
         <v>36.91199246082674</v>
@@ -6940,49 +6940,49 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="L35" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="M35" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="L35" t="n">
-        <v>1313.087264683184</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1388.813716338606</v>
-      </c>
       <c r="N35" t="n">
-        <v>1388.813716338606</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O35" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P35" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q35" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W35" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X35" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y35" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273854</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023296</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K36" t="n">
-        <v>772.8420314050604</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="L36" t="n">
-        <v>850.0084995511718</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M36" t="n">
-        <v>850.0084995511718</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="N36" t="n">
-        <v>1306.794406253903</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O36" t="n">
-        <v>1306.794406253903</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P36" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.1689621665946</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C37" t="n">
-        <v>203.1689621665946</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D37" t="n">
-        <v>203.1689621665946</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E37" t="n">
-        <v>203.1689621665946</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F37" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H37" t="n">
         <v>36.91199246082674</v>
@@ -7098,49 +7098,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K37" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L37" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M37" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N37" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O37" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S37" t="n">
-        <v>1752.163294524301</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T37" t="n">
-        <v>1508.823946750201</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U37" t="n">
-        <v>1228.639498250506</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V37" t="n">
-        <v>946.9280308585344</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W37" t="n">
-        <v>672.0756270310475</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X37" t="n">
-        <v>429.5117304768526</v>
+        <v>1104.150598301479</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.1689621665946</v>
+        <v>1020.32454672534</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1091.718858467933</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="C38" t="n">
-        <v>1091.718858467933</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="D38" t="n">
-        <v>1091.718858467933</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="E38" t="n">
-        <v>1091.718858467933</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F38" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G38" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H38" t="n">
         <v>36.91199246082674</v>
@@ -7174,19 +7174,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K38" t="n">
-        <v>399.5154512777223</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="L38" t="n">
-        <v>399.5154512777223</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M38" t="n">
-        <v>475.2419029331441</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N38" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O38" t="n">
         <v>1388.813716338606</v>
@@ -7201,25 +7201,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V38" t="n">
-        <v>1488.110208167586</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W38" t="n">
-        <v>1091.718858467933</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X38" t="n">
-        <v>1091.718858467933</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y38" t="n">
-        <v>1091.718858467933</v>
+        <v>1261.951848555523</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M39" t="n">
-        <v>932.027809635875</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N39" t="n">
-        <v>932.027809635875</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O39" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P39" t="n">
         <v>1845.599623041337</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>352.8130115130231</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C40" t="n">
-        <v>352.8130115130231</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D40" t="n">
-        <v>352.8130115130231</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E40" t="n">
-        <v>352.8130115130231</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F40" t="n">
-        <v>180.9512372875835</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G40" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H40" t="n">
         <v>36.91199246082674</v>
@@ -7332,52 +7332,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P40" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T40" t="n">
-        <v>1432.125227786372</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.940779286676</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V40" t="n">
-        <v>870.229311894705</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W40" t="n">
-        <v>595.376908067218</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X40" t="n">
-        <v>352.8130115130231</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y40" t="n">
-        <v>352.8130115130231</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.3026401727913</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C41" t="n">
         <v>36.91199246082674</v>
@@ -7414,49 +7414,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K41" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L41" t="n">
-        <v>950.4838058662885</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M41" t="n">
-        <v>1271.257381456703</v>
+        <v>475.942330131692</v>
       </c>
       <c r="N41" t="n">
-        <v>1728.043288159434</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O41" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P41" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q41" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1280.869991324889</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>1280.869991324889</v>
       </c>
       <c r="W41" t="n">
-        <v>1449.208273341684</v>
+        <v>1280.869991324889</v>
       </c>
       <c r="X41" t="n">
-        <v>1037.488274509431</v>
+        <v>869.1499924926363</v>
       </c>
       <c r="Y41" t="n">
-        <v>632.1510044643213</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="42">
@@ -7496,19 +7496,19 @@
         <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M42" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N42" t="n">
-        <v>932.027809635875</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O42" t="n">
-        <v>932.027809635875</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q42" t="n">
         <v>1845.599623041337</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>961.8126900093562</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="C43" t="n">
-        <v>789.8401268882722</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D43" t="n">
-        <v>626.5233540150429</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E43" t="n">
-        <v>460.3151481678964</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F43" t="n">
-        <v>288.4533739424568</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G43" t="n">
-        <v>122.1964042366889</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H43" t="n">
         <v>36.91199246082674</v>
@@ -7572,19 +7572,19 @@
         <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>320.9309218908219</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L43" t="n">
-        <v>675.6202431852428</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.806038155494</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N43" t="n">
-        <v>1444.297549031529</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O43" t="n">
-        <v>1718.599492800575</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P43" t="n">
         <v>1718.599492800575</v>
@@ -7596,25 +7596,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T43" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.376561228814</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V43" t="n">
-        <v>1236.665093836843</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W43" t="n">
-        <v>961.8126900093562</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="X43" t="n">
-        <v>961.8126900093562</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.8126900093562</v>
+        <v>596.8479302716203</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>519.6553448781843</v>
+        <v>1114.969487914001</v>
       </c>
       <c r="C44" t="n">
-        <v>460.2046132758265</v>
+        <v>688.0687579273008</v>
       </c>
       <c r="D44" t="n">
-        <v>36.91199246082674</v>
+        <v>688.0687579273008</v>
       </c>
       <c r="E44" t="n">
-        <v>36.91199246082674</v>
+        <v>688.0687579273008</v>
       </c>
       <c r="F44" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G44" t="n">
         <v>36.91199246082674</v>
@@ -7648,22 +7648,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K44" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L44" t="n">
-        <v>1313.087264683184</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M44" t="n">
-        <v>1389.514143537154</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="N44" t="n">
-        <v>1389.514143537154</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O44" t="n">
-        <v>1389.514143537154</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P44" t="n">
         <v>1389.514143537154</v>
@@ -7678,22 +7678,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V44" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W44" t="n">
-        <v>1344.840979214824</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X44" t="n">
-        <v>1344.840979214824</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y44" t="n">
-        <v>939.5037091697144</v>
+        <v>1114.969487914001</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K45" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="L45" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="M45" t="n">
-        <v>765.3953884431487</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="N45" t="n">
-        <v>1222.18129514588</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O45" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P45" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q45" t="n">
         <v>1845.599623041337</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713.2115053602647</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C46" t="n">
-        <v>541.2389422391807</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D46" t="n">
-        <v>541.2389422391807</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E46" t="n">
-        <v>375.0307363920342</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F46" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G46" t="n">
         <v>36.91199246082674</v>
@@ -7812,10 +7812,10 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>675.6202431852428</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.806038155494</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
         <v>1072.572152198911</v>
@@ -7830,28 +7830,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T46" t="n">
-        <v>1432.125227786372</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U46" t="n">
-        <v>1372.284138936783</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V46" t="n">
-        <v>1372.284138936783</v>
+        <v>1369.343942104244</v>
       </c>
       <c r="W46" t="n">
-        <v>1372.284138936783</v>
+        <v>1369.343942104244</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.720242382588</v>
+        <v>1126.78004555005</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.3774740723304</v>
+        <v>900.4372772397917</v>
       </c>
     </row>
   </sheetData>
@@ -9175,19 +9175,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>362.0008377727922</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>191.4123574746777</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>22.38080065798648</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q19" t="n">
         <v>24.61956276478495</v>
@@ -9403,10 +9403,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>363.0332573709691</v>
       </c>
       <c r="M20" t="n">
         <v>498.831168659766</v>
@@ -9415,16 +9415,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>375.4846162958657</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.1469440493127</v>
+        <v>183.5407536736397</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>455.6196014764236</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>457.4595408934818</v>
       </c>
       <c r="M23" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
@@ -9722,22 +9722,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>107.2386302028318</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.24691767208638</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9804,19 +9804,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>480.0371081600191</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>108.5645695103311</v>
+        <v>183.8904958969891</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9974,10 +9974,10 @@
         <v>483.1707469651629</v>
       </c>
       <c r="Q27" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.24691767208638</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10050,7 +10050,7 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>299.4534711317698</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10117,10 +10117,10 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>457.4595408934818</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M29" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
@@ -10132,7 +10132,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>381.2527255747682</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O30" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q30" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>362.2965767485775</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>465.8542658379011</v>
+        <v>183.890495896989</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10518,16 +10518,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>113.9226282079388</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376384</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>100.4610141345441</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N36" t="n">
         <v>482.7429339738759</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>464.528326530402</v>
       </c>
       <c r="Q36" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>100.3044564185466</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>478.5220861203824</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M38" t="n">
-        <v>113.9226282079387</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>498.9752675705655</v>
@@ -10898,28 +10898,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>465.2725720398027</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,7 +10992,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>481.7770299789515</v>
       </c>
       <c r="M41" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>182.1367435982028</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651629</v>
+        <v>182.5645565894898</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11220,7 +11220,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>233.3185262234007</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11232,10 +11232,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>299.5718579722078</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P43" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>114.6301304286942</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>480.8559469023526</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>458.3324042602124</v>
       </c>
       <c r="N45" t="n">
         <v>482.7429339738759</v>
       </c>
       <c r="O45" t="n">
-        <v>191.487466684572</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11460,13 +11460,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>400.5044494188121</v>
       </c>
       <c r="N46" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23749,7 +23749,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23791,16 +23791,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>89.72188006643518</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>206.3343440542548</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>273.1300665709851</v>
       </c>
       <c r="F20" t="n">
-        <v>71.79950917260982</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -24028,10 +24028,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>26.1976731290257</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>20.02016776109707</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3000664371293</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>16.90389107311734</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24366,7 +24366,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>128.1583964350527</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.67644152230633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>174.3825540400611</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>195.1434416904486</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -24615,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>122.4999589538897</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>198.3725233675529</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24691,16 +24691,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>140.8419961536959</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>285.6218193654225</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>196.1316672486615</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>263.2857684650355</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>106.044214672273</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>107.5634614771281</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>312.2540777696157</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>309.3306541137071</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25314,22 +25314,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.93173177419139</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>141.0915495667774</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>52.43237559919868</v>
       </c>
       <c r="F38" t="n">
-        <v>71.79950917260982</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.99554763022098</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>89.21760100306955</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>248.994981451988</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>18.72896134167266</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>130.3006160086166</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>57.92673814882359</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>363.7754984004986</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>176.5234139671303</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>218.139926053606</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>22.40315277608488</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60870.09540019949</v>
+        <v>466215.7471289766</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>466215.7471289766</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466215.7471289766</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466215.7471289766</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>466215.7471289766</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466215.7471289766</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466215.7471289766</v>
+        <v>466215.7471289765</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8835.981590351532</v>
+        <v>8835.981590351535</v>
       </c>
       <c r="C2" t="n">
         <v>8835.981590351535</v>
@@ -26322,16 +26322,16 @@
         <v>8835.981590351535</v>
       </c>
       <c r="E2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="F2" t="n">
         <v>8835.981590351534</v>
       </c>
       <c r="G2" t="n">
-        <v>8835.981590351535</v>
+        <v>67657.21636827559</v>
       </c>
       <c r="H2" t="n">
-        <v>67657.21636827558</v>
+        <v>67657.21636827559</v>
       </c>
       <c r="I2" t="n">
         <v>67657.21636827559</v>
@@ -26340,19 +26340,19 @@
         <v>67657.21636827559</v>
       </c>
       <c r="K2" t="n">
-        <v>67657.21636827558</v>
+        <v>67657.21636827559</v>
       </c>
       <c r="L2" t="n">
-        <v>67657.21636827558</v>
+        <v>67657.21636827559</v>
       </c>
       <c r="M2" t="n">
-        <v>67657.21636827558</v>
+        <v>67657.21636827561</v>
       </c>
       <c r="N2" t="n">
-        <v>67657.21636827558</v>
+        <v>67657.21636827559</v>
       </c>
       <c r="O2" t="n">
-        <v>67657.21636827558</v>
+        <v>67657.21636827556</v>
       </c>
       <c r="P2" t="n">
         <v>67657.21636827559</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>126462.7931703212</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>111036.3487211302</v>
       </c>
       <c r="P3" t="n">
-        <v>109062.9413241932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>981.7757322612816</v>
       </c>
       <c r="G4" t="n">
-        <v>981.7757322612816</v>
+        <v>8050.273149146125</v>
       </c>
       <c r="H4" t="n">
         <v>8050.273149146124</v>
@@ -26444,16 +26444,16 @@
         <v>8050.273149146124</v>
       </c>
       <c r="K4" t="n">
+        <v>8050.273149146124</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8050.273149146124</v>
+      </c>
+      <c r="M4" t="n">
         <v>8050.273149146125</v>
       </c>
-      <c r="L4" t="n">
-        <v>8050.273149146125</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8050.273149146124</v>
-      </c>
       <c r="N4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146123</v>
       </c>
       <c r="O4" t="n">
         <v>8050.273149146124</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
         <v>28053.11427022832</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288473</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090252</v>
+        <v>6496.276761288473</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090254</v>
+        <v>-95613.3240429116</v>
       </c>
       <c r="H6" t="n">
-        <v>-92936.01822438888</v>
+        <v>30849.46912740964</v>
       </c>
       <c r="I6" t="n">
-        <v>31553.82894890115</v>
+        <v>30849.46912740964</v>
       </c>
       <c r="J6" t="n">
-        <v>31553.82894890115</v>
+        <v>30849.46912740964</v>
       </c>
       <c r="K6" t="n">
-        <v>31553.82894890114</v>
+        <v>30849.46912740964</v>
       </c>
       <c r="L6" t="n">
-        <v>31553.82894890114</v>
+        <v>30849.46912740964</v>
       </c>
       <c r="M6" t="n">
-        <v>31553.82894890114</v>
+        <v>30849.46912740965</v>
       </c>
       <c r="N6" t="n">
-        <v>31553.82894890114</v>
+        <v>30849.46912740964</v>
       </c>
       <c r="O6" t="n">
-        <v>31553.82894890114</v>
+        <v>-80186.87959372059</v>
       </c>
       <c r="P6" t="n">
-        <v>-77509.11237529208</v>
+        <v>30849.46912740964</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
         <v>461.3999057603342</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35895,19 +35895,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="M20" t="n">
         <v>461.3999057603342</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>352.3878357835378</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P21" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
@@ -36442,22 +36442,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="P24" t="n">
-        <v>85.46778899800312</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.61016168818452</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>228.8157587937749</v>
@@ -36524,19 +36524,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N25" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L27" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
-        <v>85.46778899800312</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.61016168818452</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
@@ -36770,7 +36770,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>293.5345574968697</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="Q28" t="n">
         <v>128.2829598391535</v>
@@ -36837,10 +36837,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L29" t="n">
-        <v>419.1474984608589</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9096973612265</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>324.7212149383462</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M33" t="n">
-        <v>442.7574853255731</v>
+        <v>160.7937153846611</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37238,16 +37238,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O34" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L35" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M35" t="n">
-        <v>76.49136530850697</v>
-      </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L36" t="n">
-        <v>77.9459274203145</v>
-      </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N36" t="n">
         <v>461.3999057603342</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>77.72901652706079</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M38" t="n">
-        <v>76.49136530850691</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>461.3999057603342</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>442.7574853255732</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37712,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>443.4649875463285</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L41" t="n">
+      <c r="P41" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M41" t="n">
-        <v>324.0137127175907</v>
-      </c>
-      <c r="N41" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>461.3999057603342</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>160.7937153846612</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>461.3999057603342</v>
-      </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>212.3538717706887</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37952,10 +37952,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>277.0726704737833</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L44" t="n">
+      <c r="O44" t="n">
+        <v>443.4649875463285</v>
+      </c>
+      <c r="P44" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M44" t="n">
-        <v>77.19886752926243</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>435.2356237478844</v>
       </c>
       <c r="N45" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O45" t="n">
-        <v>168.3155769623498</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,13 +38180,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>377.9290095273263</v>
       </c>
       <c r="N46" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
